--- a/xlsx/Https_intext.xlsx
+++ b/xlsx/Https_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="837">
   <si>
     <t>Https</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Hypertext Transfer Protocol</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Https</t>
+    <t>政策_政策_维基百科_Https</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%96%87%E6%9C%AC%E4%BC%A0%E8%BE%93%E5%8D%8F%E8%AE%AE</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/HTTP%E7%8B%80%E6%85%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>HTTP狀態碼</t>
+    <t>HTTP状态码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HTTP_301</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>計算機網絡</t>
+    <t>计算机网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E5%82%B3%E8%BC%B8%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>網路傳輸協定</t>
+    <t>网路传输协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E8%BE%93%E5%B1%82%E5%AE%89%E5%85%A8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BB%BD%E9%AA%8C%E8%AF%81</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E6%99%AF</t>
   </si>
   <si>
-    <t>網景</t>
+    <t>网景</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E7%BB%B4%E7%BD%91</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>竊聽</t>
+    <t>窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%97%B4%E4%BA%BA%E6%94%BB%E5%87%BB</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99%E6%B5%81%E9%87%8F</t>
   </si>
   <si>
-    <t>網站流量</t>
+    <t>网站流量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9D%80%E6%A0%8F</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%81%BD</t>
   </si>
   <si>
-    <t>監聽</t>
+    <t>监听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OSI%E6%A8%A1%E5%9E%8B</t>
@@ -461,9 +461,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%99%AF</t>
   </si>
   <si>
-    <t>网景</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%99%AF%E5%AF%BC%E8%88%AA%E8%80%85</t>
   </si>
   <si>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Mozilla基金會</t>
+    <t>Mozilla基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Softpedia</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E8%B3%87%E6%BA%90%E6%A8%99%E8%AA%8C%E7%AC%A6</t>
   </si>
   <si>
-    <t>統一資源標誌符</t>
+    <t>统一资源标志符</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/AAA_protocol</t>
@@ -1043,13 +1040,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E7%80%8F%E8%A6%BD%E5%99%A8%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>網頁瀏覽器比較</t>
+    <t>网页浏览器比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E7%80%8F%E8%A6%BD%E5%99%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>網頁瀏覽器列表</t>
+    <t>网页浏览器列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E6%B5%8F%E8%A7%88%E5%99%A8%E6%97%B6%E9%97%B4%E7%BA%BF</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E7%80%8F%E8%A6%BD%E5%99%A8%E7%9A%84%E4%BD%BF%E7%94%A8%E5%88%86%E4%BD%88</t>
   </si>
   <si>
-    <t>網頁瀏覽器的使用分佈</t>
+    <t>网页浏览器的使用分布</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ad_filtering</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E7%B1%A4_(%E7%80%8F%E8%A6%BD%E5%99%A8)</t>
   </si>
   <si>
-    <t>書籤 (瀏覽器)</t>
+    <t>书籤 (浏览器)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%B9%A6%E7%AD%BE</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%8F%E8%A6%BD%E5%99%A8%E6%93%B4%E5%85%85%E5%8A%9F%E8%83%BD</t>
   </si>
   <si>
-    <t>瀏覽器擴充功能</t>
+    <t>浏览器扩充功能</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Browser_security</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%A0%81_(GUI)</t>
   </si>
   <si>
-    <t>分頁 (GUI)</t>
+    <t>分页 (GUI)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Universal_Edit_Button</t>
@@ -1193,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%B8%AE%E6%94%BE%E5%90%91%E9%87%8F%E5%9C%96%E5%BD%A2</t>
   </si>
   <si>
-    <t>可縮放向量圖形</t>
+    <t>可缩放向量图形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/XHTML</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%BC%B8%E5%B1%A4%E5%AE%89%E5%85%A8%E6%80%A7%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>傳輸層安全性協定</t>
+    <t>传输层安全性协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E4%BB%A3%E7%90%86%E8%87%AA%E5%8A%A8%E5%8F%91%E7%8E%B0%E5%8D%8F%E8%AE%AE</t>
@@ -1313,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Blink</t>
@@ -1349,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/Vivaldi_(%E7%80%8F%E8%A6%BD%E5%99%A8)</t>
   </si>
   <si>
-    <t>Vivaldi (瀏覽器)</t>
+    <t>Vivaldi (浏览器)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Torch</t>
@@ -1427,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E6%99%AF_(%E7%80%8F%E8%A6%BD%E5%99%A8)</t>
   </si>
   <si>
-    <t>網景 (瀏覽器)</t>
+    <t>网景 (浏览器)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Trident_(%E6%8E%92%E7%89%88%E5%BC%95%E6%93%8E)</t>
@@ -1445,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/2345%E7%8E%8B%E7%89%8C%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>2345王牌瀏覽器</t>
+    <t>2345王牌浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MyIE</t>
@@ -1667,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/Arena_(%E7%80%8F%E8%A6%BD%E5%99%A8)</t>
   </si>
   <si>
-    <t>Arena (瀏覽器)</t>
+    <t>Arena (浏览器)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mosaic</t>
@@ -1715,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>行動裝置</t>
+    <t>行动装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Android</t>
@@ -1727,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/Opera%E6%89%8B%E6%A9%9F%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>Opera手機瀏覽器</t>
+    <t>Opera手机浏览器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Amazon_Silk</t>
@@ -1811,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E6%A9%9F</t>
   </si>
   <si>
-    <t>電視機</t>
+    <t>电视机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%B8%B8%E6%88%8F%E6%9C%BA</t>
@@ -1829,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/Opera%E8%A8%AD%E5%82%99%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>Opera設備瀏覽器</t>
+    <t>Opera设备浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google_TV</t>
@@ -1853,13 +1850,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%BC%B8%E5%B1%A4%E5%AE%89%E5%85%A8%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>傳輸層安全協議</t>
+    <t>传输层安全协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%8C%85%E5%82%B3%E8%BC%B8%E5%B1%A4%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>資料包傳輸層安全</t>
+    <t>资料包传输层安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNS%E9%AA%8C%E8%AF%81%E9%A2%81%E5%8F%91%E6%9C%BA%E6%9E%84</t>
@@ -1955,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%96%8B%E9%87%91%E9%91%B0%E8%AA%8D%E8%AD%89</t>
   </si>
   <si>
-    <t>公開金鑰認證</t>
+    <t>公开金钥认证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%BC%80%E5%AF%86%E9%92%A5%E5%8A%A0%E5%AF%86</t>
@@ -1973,13 +1970,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%96%8B%E9%87%91%E9%91%B0%E5%9F%BA%E7%A4%8E%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>公開金鑰基礎建設</t>
+    <t>公开金钥基础建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%BB%E9%8F%88</t>
   </si>
   <si>
-    <t>信任鏈</t>
+    <t>信任链</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%AF%81%E4%B9%A6</t>
@@ -1997,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%88%E6%AC%8A%E6%86%91%E8%AD%89</t>
   </si>
   <si>
-    <t>授權憑證</t>
+    <t>授权凭证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E9%85%8D%E7%AC%A6%E8%AF%81%E4%B9%A6</t>
@@ -2243,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>國家區域網路</t>
+    <t>国家区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IP%E5%B0%81%E9%94%81</t>
@@ -2291,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%AD%89%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>對等網路</t>
+    <t>对等网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E4%BB%A3%E7%90%86</t>
@@ -2303,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E7%A7%81%E4%BA%BA%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>虛擬私人網路</t>
+    <t>虚拟私人网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%90%91%E4%BB%A3%E7%90%86</t>
@@ -2345,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%A2%A8</t>
   </si>
   <si>
-    <t>賽風</t>
+    <t>赛风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GoAgent</t>
@@ -2519,7 +2516,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%82%AE_(%E4%B8%AD%E5%9C%8B%E7%B6%B2%E8%B7%AF%E5%AF%A9%E6%9F%A5)</t>
   </si>
   <si>
-    <t>大炮 (中國網路審查)</t>
+    <t>大炮 (中国网路审查)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%96%87%E6%9C%AC%E4%BC%A0%E8%BE%93%E5%AE%89%E5%85%A8%E5%8D%8F%E8%AE%AE</t>
@@ -5480,7 +5477,7 @@
         <v>147</v>
       </c>
       <c r="F90" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5506,10 +5503,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" t="s">
         <v>149</v>
-      </c>
-      <c r="F91" t="s">
-        <v>150</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5535,10 +5532,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>150</v>
+      </c>
+      <c r="F92" t="s">
         <v>151</v>
-      </c>
-      <c r="F92" t="s">
-        <v>152</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5564,10 +5561,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" t="s">
         <v>153</v>
-      </c>
-      <c r="F93" t="s">
-        <v>154</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5593,10 +5590,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94" t="s">
         <v>155</v>
-      </c>
-      <c r="F94" t="s">
-        <v>156</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5622,10 +5619,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>156</v>
+      </c>
+      <c r="F95" t="s">
         <v>157</v>
-      </c>
-      <c r="F95" t="s">
-        <v>158</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5651,10 +5648,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96" t="s">
         <v>159</v>
-      </c>
-      <c r="F96" t="s">
-        <v>160</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5680,10 +5677,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" t="s">
         <v>161</v>
-      </c>
-      <c r="F97" t="s">
-        <v>162</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5709,10 +5706,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" t="s">
         <v>163</v>
-      </c>
-      <c r="F98" t="s">
-        <v>164</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5738,10 +5735,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>164</v>
+      </c>
+      <c r="F99" t="s">
         <v>165</v>
-      </c>
-      <c r="F99" t="s">
-        <v>166</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5767,10 +5764,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" t="s">
         <v>167</v>
-      </c>
-      <c r="F100" t="s">
-        <v>168</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5796,10 +5793,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" t="s">
         <v>169</v>
-      </c>
-      <c r="F101" t="s">
-        <v>170</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5825,10 +5822,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" t="s">
         <v>171</v>
-      </c>
-      <c r="F102" t="s">
-        <v>172</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5854,10 +5851,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>172</v>
+      </c>
+      <c r="F103" t="s">
         <v>173</v>
-      </c>
-      <c r="F103" t="s">
-        <v>174</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5883,10 +5880,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>174</v>
+      </c>
+      <c r="F104" t="s">
         <v>175</v>
-      </c>
-      <c r="F104" t="s">
-        <v>176</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5912,10 +5909,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" t="s">
         <v>177</v>
-      </c>
-      <c r="F105" t="s">
-        <v>178</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5941,10 +5938,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" t="s">
         <v>179</v>
-      </c>
-      <c r="F106" t="s">
-        <v>180</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5970,10 +5967,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>180</v>
+      </c>
+      <c r="F107" t="s">
         <v>181</v>
-      </c>
-      <c r="F107" t="s">
-        <v>182</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5999,10 +5996,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>182</v>
+      </c>
+      <c r="F108" t="s">
         <v>183</v>
-      </c>
-      <c r="F108" t="s">
-        <v>184</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6028,10 +6025,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" t="s">
         <v>185</v>
-      </c>
-      <c r="F109" t="s">
-        <v>186</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6057,10 +6054,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>186</v>
+      </c>
+      <c r="F110" t="s">
         <v>187</v>
-      </c>
-      <c r="F110" t="s">
-        <v>188</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6086,10 +6083,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" t="s">
         <v>189</v>
-      </c>
-      <c r="F111" t="s">
-        <v>190</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6115,10 +6112,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112" t="s">
         <v>191</v>
-      </c>
-      <c r="F112" t="s">
-        <v>192</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6144,10 +6141,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>192</v>
+      </c>
+      <c r="F113" t="s">
         <v>193</v>
-      </c>
-      <c r="F113" t="s">
-        <v>194</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6173,10 +6170,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>194</v>
+      </c>
+      <c r="F114" t="s">
         <v>195</v>
-      </c>
-      <c r="F114" t="s">
-        <v>196</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6202,10 +6199,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>196</v>
+      </c>
+      <c r="F115" t="s">
         <v>197</v>
-      </c>
-      <c r="F115" t="s">
-        <v>198</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6231,10 +6228,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>198</v>
+      </c>
+      <c r="F116" t="s">
         <v>199</v>
-      </c>
-      <c r="F116" t="s">
-        <v>200</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6260,10 +6257,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>200</v>
+      </c>
+      <c r="F117" t="s">
         <v>201</v>
-      </c>
-      <c r="F117" t="s">
-        <v>202</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6289,10 +6286,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>202</v>
+      </c>
+      <c r="F118" t="s">
         <v>203</v>
-      </c>
-      <c r="F118" t="s">
-        <v>204</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -6318,10 +6315,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>204</v>
+      </c>
+      <c r="F119" t="s">
         <v>205</v>
-      </c>
-      <c r="F119" t="s">
-        <v>206</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6347,10 +6344,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>206</v>
+      </c>
+      <c r="F120" t="s">
         <v>207</v>
-      </c>
-      <c r="F120" t="s">
-        <v>208</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6376,10 +6373,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>208</v>
+      </c>
+      <c r="F121" t="s">
         <v>209</v>
-      </c>
-      <c r="F121" t="s">
-        <v>210</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6434,10 +6431,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>210</v>
+      </c>
+      <c r="F123" t="s">
         <v>211</v>
-      </c>
-      <c r="F123" t="s">
-        <v>212</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -6463,10 +6460,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>212</v>
+      </c>
+      <c r="F124" t="s">
         <v>213</v>
-      </c>
-      <c r="F124" t="s">
-        <v>214</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6492,10 +6489,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>214</v>
+      </c>
+      <c r="F125" t="s">
         <v>215</v>
-      </c>
-      <c r="F125" t="s">
-        <v>216</v>
       </c>
       <c r="G125" t="n">
         <v>38</v>
@@ -6521,10 +6518,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" t="s">
         <v>217</v>
-      </c>
-      <c r="F126" t="s">
-        <v>218</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6550,10 +6547,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>218</v>
+      </c>
+      <c r="F127" t="s">
         <v>219</v>
-      </c>
-      <c r="F127" t="s">
-        <v>220</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6579,10 +6576,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" t="s">
         <v>221</v>
-      </c>
-      <c r="F128" t="s">
-        <v>222</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6608,10 +6605,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>222</v>
+      </c>
+      <c r="F129" t="s">
         <v>223</v>
-      </c>
-      <c r="F129" t="s">
-        <v>224</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6637,10 +6634,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130" t="s">
         <v>187</v>
-      </c>
-      <c r="F130" t="s">
-        <v>188</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6666,10 +6663,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>224</v>
+      </c>
+      <c r="F131" t="s">
         <v>225</v>
-      </c>
-      <c r="F131" t="s">
-        <v>226</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6695,10 +6692,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>226</v>
+      </c>
+      <c r="F132" t="s">
         <v>227</v>
-      </c>
-      <c r="F132" t="s">
-        <v>228</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6724,10 +6721,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>228</v>
+      </c>
+      <c r="F133" t="s">
         <v>229</v>
-      </c>
-      <c r="F133" t="s">
-        <v>230</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6753,10 +6750,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>230</v>
+      </c>
+      <c r="F134" t="s">
         <v>231</v>
-      </c>
-      <c r="F134" t="s">
-        <v>232</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6782,10 +6779,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>232</v>
+      </c>
+      <c r="F135" t="s">
         <v>233</v>
-      </c>
-      <c r="F135" t="s">
-        <v>234</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6811,10 +6808,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>234</v>
+      </c>
+      <c r="F136" t="s">
         <v>235</v>
-      </c>
-      <c r="F136" t="s">
-        <v>236</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6840,10 +6837,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>236</v>
+      </c>
+      <c r="F137" t="s">
         <v>237</v>
-      </c>
-      <c r="F137" t="s">
-        <v>238</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6869,10 +6866,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>238</v>
+      </c>
+      <c r="F138" t="s">
         <v>239</v>
-      </c>
-      <c r="F138" t="s">
-        <v>240</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6898,10 +6895,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>240</v>
+      </c>
+      <c r="F139" t="s">
         <v>241</v>
-      </c>
-      <c r="F139" t="s">
-        <v>242</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6927,10 +6924,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" t="s">
         <v>243</v>
-      </c>
-      <c r="F140" t="s">
-        <v>244</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6956,10 +6953,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>244</v>
+      </c>
+      <c r="F141" t="s">
         <v>245</v>
-      </c>
-      <c r="F141" t="s">
-        <v>246</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6985,10 +6982,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>246</v>
+      </c>
+      <c r="F142" t="s">
         <v>247</v>
-      </c>
-      <c r="F142" t="s">
-        <v>248</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7014,10 +7011,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>248</v>
+      </c>
+      <c r="F143" t="s">
         <v>249</v>
-      </c>
-      <c r="F143" t="s">
-        <v>250</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7043,10 +7040,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>250</v>
+      </c>
+      <c r="F144" t="s">
         <v>251</v>
-      </c>
-      <c r="F144" t="s">
-        <v>252</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7072,10 +7069,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>252</v>
+      </c>
+      <c r="F145" t="s">
         <v>253</v>
-      </c>
-      <c r="F145" t="s">
-        <v>254</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7101,10 +7098,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>254</v>
+      </c>
+      <c r="F146" t="s">
         <v>255</v>
-      </c>
-      <c r="F146" t="s">
-        <v>256</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7130,10 +7127,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>256</v>
+      </c>
+      <c r="F147" t="s">
         <v>257</v>
-      </c>
-      <c r="F147" t="s">
-        <v>258</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7159,10 +7156,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>258</v>
+      </c>
+      <c r="F148" t="s">
         <v>259</v>
-      </c>
-      <c r="F148" t="s">
-        <v>260</v>
       </c>
       <c r="G148" t="n">
         <v>35</v>
@@ -7188,10 +7185,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>258</v>
+      </c>
+      <c r="F149" t="s">
         <v>259</v>
-      </c>
-      <c r="F149" t="s">
-        <v>260</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7217,10 +7214,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>260</v>
+      </c>
+      <c r="F150" t="s">
         <v>261</v>
-      </c>
-      <c r="F150" t="s">
-        <v>262</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7246,10 +7243,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>262</v>
+      </c>
+      <c r="F151" t="s">
         <v>263</v>
-      </c>
-      <c r="F151" t="s">
-        <v>264</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7275,10 +7272,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>264</v>
+      </c>
+      <c r="F152" t="s">
         <v>265</v>
-      </c>
-      <c r="F152" t="s">
-        <v>266</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7304,10 +7301,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>266</v>
+      </c>
+      <c r="F153" t="s">
         <v>267</v>
-      </c>
-      <c r="F153" t="s">
-        <v>268</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7333,10 +7330,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>268</v>
+      </c>
+      <c r="F154" t="s">
         <v>269</v>
-      </c>
-      <c r="F154" t="s">
-        <v>270</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7362,10 +7359,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>270</v>
+      </c>
+      <c r="F155" t="s">
         <v>271</v>
-      </c>
-      <c r="F155" t="s">
-        <v>272</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7391,10 +7388,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>272</v>
+      </c>
+      <c r="F156" t="s">
         <v>273</v>
-      </c>
-      <c r="F156" t="s">
-        <v>274</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7420,10 +7417,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>274</v>
+      </c>
+      <c r="F157" t="s">
         <v>275</v>
-      </c>
-      <c r="F157" t="s">
-        <v>276</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7449,10 +7446,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>276</v>
+      </c>
+      <c r="F158" t="s">
         <v>277</v>
-      </c>
-      <c r="F158" t="s">
-        <v>278</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7478,10 +7475,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F159" t="s">
         <v>279</v>
-      </c>
-      <c r="F159" t="s">
-        <v>280</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7507,10 +7504,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>280</v>
+      </c>
+      <c r="F160" t="s">
         <v>281</v>
-      </c>
-      <c r="F160" t="s">
-        <v>282</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7536,10 +7533,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>282</v>
+      </c>
+      <c r="F161" t="s">
         <v>283</v>
-      </c>
-      <c r="F161" t="s">
-        <v>284</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7565,10 +7562,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>284</v>
+      </c>
+      <c r="F162" t="s">
         <v>285</v>
-      </c>
-      <c r="F162" t="s">
-        <v>286</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7594,10 +7591,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>286</v>
+      </c>
+      <c r="F163" t="s">
         <v>287</v>
-      </c>
-      <c r="F163" t="s">
-        <v>288</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7623,10 +7620,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>288</v>
+      </c>
+      <c r="F164" t="s">
         <v>289</v>
-      </c>
-      <c r="F164" t="s">
-        <v>290</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7652,10 +7649,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>290</v>
+      </c>
+      <c r="F165" t="s">
         <v>291</v>
-      </c>
-      <c r="F165" t="s">
-        <v>292</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7681,10 +7678,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>292</v>
+      </c>
+      <c r="F166" t="s">
         <v>293</v>
-      </c>
-      <c r="F166" t="s">
-        <v>294</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7710,10 +7707,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>294</v>
+      </c>
+      <c r="F167" t="s">
         <v>295</v>
-      </c>
-      <c r="F167" t="s">
-        <v>296</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7739,10 +7736,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>294</v>
+      </c>
+      <c r="F168" t="s">
         <v>295</v>
-      </c>
-      <c r="F168" t="s">
-        <v>296</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7768,10 +7765,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>296</v>
+      </c>
+      <c r="F169" t="s">
         <v>297</v>
-      </c>
-      <c r="F169" t="s">
-        <v>298</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7797,10 +7794,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>298</v>
+      </c>
+      <c r="F170" t="s">
         <v>299</v>
-      </c>
-      <c r="F170" t="s">
-        <v>300</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7826,10 +7823,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>220</v>
+      </c>
+      <c r="F171" t="s">
         <v>221</v>
-      </c>
-      <c r="F171" t="s">
-        <v>222</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7855,10 +7852,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>300</v>
+      </c>
+      <c r="F172" t="s">
         <v>301</v>
-      </c>
-      <c r="F172" t="s">
-        <v>302</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7884,10 +7881,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>302</v>
+      </c>
+      <c r="F173" t="s">
         <v>303</v>
-      </c>
-      <c r="F173" t="s">
-        <v>304</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7913,10 +7910,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>304</v>
+      </c>
+      <c r="F174" t="s">
         <v>305</v>
-      </c>
-      <c r="F174" t="s">
-        <v>306</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7942,10 +7939,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>306</v>
+      </c>
+      <c r="F175" t="s">
         <v>307</v>
-      </c>
-      <c r="F175" t="s">
-        <v>308</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7971,10 +7968,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>308</v>
+      </c>
+      <c r="F176" t="s">
         <v>309</v>
-      </c>
-      <c r="F176" t="s">
-        <v>310</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8000,10 +7997,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>272</v>
+      </c>
+      <c r="F177" t="s">
         <v>273</v>
-      </c>
-      <c r="F177" t="s">
-        <v>274</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8029,10 +8026,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>310</v>
+      </c>
+      <c r="F178" t="s">
         <v>311</v>
-      </c>
-      <c r="F178" t="s">
-        <v>312</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8058,10 +8055,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>312</v>
+      </c>
+      <c r="F179" t="s">
         <v>313</v>
-      </c>
-      <c r="F179" t="s">
-        <v>314</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8087,10 +8084,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>314</v>
+      </c>
+      <c r="F180" t="s">
         <v>315</v>
-      </c>
-      <c r="F180" t="s">
-        <v>316</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8116,10 +8113,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>316</v>
+      </c>
+      <c r="F181" t="s">
         <v>317</v>
-      </c>
-      <c r="F181" t="s">
-        <v>318</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8145,10 +8142,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>318</v>
+      </c>
+      <c r="F182" t="s">
         <v>319</v>
-      </c>
-      <c r="F182" t="s">
-        <v>320</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8174,10 +8171,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>320</v>
+      </c>
+      <c r="F183" t="s">
         <v>321</v>
-      </c>
-      <c r="F183" t="s">
-        <v>322</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8203,10 +8200,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>322</v>
+      </c>
+      <c r="F184" t="s">
         <v>323</v>
-      </c>
-      <c r="F184" t="s">
-        <v>324</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8232,10 +8229,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>324</v>
+      </c>
+      <c r="F185" t="s">
         <v>325</v>
-      </c>
-      <c r="F185" t="s">
-        <v>326</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8261,10 +8258,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>326</v>
+      </c>
+      <c r="F186" t="s">
         <v>327</v>
-      </c>
-      <c r="F186" t="s">
-        <v>328</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8290,10 +8287,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>328</v>
+      </c>
+      <c r="F187" t="s">
         <v>329</v>
-      </c>
-      <c r="F187" t="s">
-        <v>330</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8319,10 +8316,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>330</v>
+      </c>
+      <c r="F188" t="s">
         <v>331</v>
-      </c>
-      <c r="F188" t="s">
-        <v>332</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8348,10 +8345,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>332</v>
+      </c>
+      <c r="F189" t="s">
         <v>333</v>
-      </c>
-      <c r="F189" t="s">
-        <v>334</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8377,10 +8374,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>334</v>
+      </c>
+      <c r="F190" t="s">
         <v>335</v>
-      </c>
-      <c r="F190" t="s">
-        <v>336</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8406,10 +8403,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>336</v>
+      </c>
+      <c r="F191" t="s">
         <v>337</v>
-      </c>
-      <c r="F191" t="s">
-        <v>338</v>
       </c>
       <c r="G191" t="n">
         <v>9</v>
@@ -8435,10 +8432,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>338</v>
+      </c>
+      <c r="F192" t="s">
         <v>339</v>
-      </c>
-      <c r="F192" t="s">
-        <v>340</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8464,10 +8461,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>340</v>
+      </c>
+      <c r="F193" t="s">
         <v>341</v>
-      </c>
-      <c r="F193" t="s">
-        <v>342</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8493,10 +8490,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>342</v>
+      </c>
+      <c r="F194" t="s">
         <v>343</v>
-      </c>
-      <c r="F194" t="s">
-        <v>344</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -8522,10 +8519,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>344</v>
+      </c>
+      <c r="F195" t="s">
         <v>345</v>
-      </c>
-      <c r="F195" t="s">
-        <v>346</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8551,10 +8548,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>346</v>
+      </c>
+      <c r="F196" t="s">
         <v>347</v>
-      </c>
-      <c r="F196" t="s">
-        <v>348</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8580,10 +8577,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>348</v>
+      </c>
+      <c r="F197" t="s">
         <v>349</v>
-      </c>
-      <c r="F197" t="s">
-        <v>350</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8609,10 +8606,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>350</v>
+      </c>
+      <c r="F198" t="s">
         <v>351</v>
-      </c>
-      <c r="F198" t="s">
-        <v>352</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8638,10 +8635,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>352</v>
+      </c>
+      <c r="F199" t="s">
         <v>353</v>
-      </c>
-      <c r="F199" t="s">
-        <v>354</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8667,10 +8664,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>354</v>
+      </c>
+      <c r="F200" t="s">
         <v>355</v>
-      </c>
-      <c r="F200" t="s">
-        <v>356</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8696,10 +8693,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>356</v>
+      </c>
+      <c r="F201" t="s">
         <v>357</v>
-      </c>
-      <c r="F201" t="s">
-        <v>358</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8725,10 +8722,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>358</v>
+      </c>
+      <c r="F202" t="s">
         <v>359</v>
-      </c>
-      <c r="F202" t="s">
-        <v>360</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8754,10 +8751,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>360</v>
+      </c>
+      <c r="F203" t="s">
         <v>361</v>
-      </c>
-      <c r="F203" t="s">
-        <v>362</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8783,10 +8780,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>362</v>
+      </c>
+      <c r="F204" t="s">
         <v>363</v>
-      </c>
-      <c r="F204" t="s">
-        <v>364</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8812,10 +8809,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>364</v>
+      </c>
+      <c r="F205" t="s">
         <v>365</v>
-      </c>
-      <c r="F205" t="s">
-        <v>366</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8841,10 +8838,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>366</v>
+      </c>
+      <c r="F206" t="s">
         <v>367</v>
-      </c>
-      <c r="F206" t="s">
-        <v>368</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8870,10 +8867,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>368</v>
+      </c>
+      <c r="F207" t="s">
         <v>369</v>
-      </c>
-      <c r="F207" t="s">
-        <v>370</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8899,10 +8896,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>370</v>
+      </c>
+      <c r="F208" t="s">
         <v>371</v>
-      </c>
-      <c r="F208" t="s">
-        <v>372</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8928,10 +8925,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>372</v>
+      </c>
+      <c r="F209" t="s">
         <v>373</v>
-      </c>
-      <c r="F209" t="s">
-        <v>374</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8957,10 +8954,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>374</v>
+      </c>
+      <c r="F210" t="s">
         <v>375</v>
-      </c>
-      <c r="F210" t="s">
-        <v>376</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8986,10 +8983,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>376</v>
+      </c>
+      <c r="F211" t="s">
         <v>377</v>
-      </c>
-      <c r="F211" t="s">
-        <v>378</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9015,10 +9012,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>378</v>
+      </c>
+      <c r="F212" t="s">
         <v>379</v>
-      </c>
-      <c r="F212" t="s">
-        <v>380</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9044,10 +9041,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>380</v>
+      </c>
+      <c r="F213" t="s">
         <v>381</v>
-      </c>
-      <c r="F213" t="s">
-        <v>382</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9073,10 +9070,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>382</v>
+      </c>
+      <c r="F214" t="s">
         <v>383</v>
-      </c>
-      <c r="F214" t="s">
-        <v>384</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9102,10 +9099,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>384</v>
+      </c>
+      <c r="F215" t="s">
         <v>385</v>
-      </c>
-      <c r="F215" t="s">
-        <v>386</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9131,10 +9128,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>386</v>
+      </c>
+      <c r="F216" t="s">
         <v>387</v>
-      </c>
-      <c r="F216" t="s">
-        <v>388</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9160,10 +9157,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>388</v>
+      </c>
+      <c r="F217" t="s">
         <v>389</v>
-      </c>
-      <c r="F217" t="s">
-        <v>390</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9189,10 +9186,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>390</v>
+      </c>
+      <c r="F218" t="s">
         <v>391</v>
-      </c>
-      <c r="F218" t="s">
-        <v>392</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9218,10 +9215,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>392</v>
+      </c>
+      <c r="F219" t="s">
         <v>393</v>
-      </c>
-      <c r="F219" t="s">
-        <v>394</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9247,10 +9244,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>394</v>
+      </c>
+      <c r="F220" t="s">
         <v>395</v>
-      </c>
-      <c r="F220" t="s">
-        <v>396</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9276,10 +9273,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>298</v>
+      </c>
+      <c r="F221" t="s">
         <v>299</v>
-      </c>
-      <c r="F221" t="s">
-        <v>300</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9305,10 +9302,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>396</v>
+      </c>
+      <c r="F222" t="s">
         <v>397</v>
-      </c>
-      <c r="F222" t="s">
-        <v>398</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9363,10 +9360,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>398</v>
+      </c>
+      <c r="F224" t="s">
         <v>399</v>
-      </c>
-      <c r="F224" t="s">
-        <v>400</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9392,10 +9389,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>400</v>
+      </c>
+      <c r="F225" t="s">
         <v>401</v>
-      </c>
-      <c r="F225" t="s">
-        <v>402</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9421,10 +9418,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>258</v>
+      </c>
+      <c r="F226" t="s">
         <v>259</v>
-      </c>
-      <c r="F226" t="s">
-        <v>260</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9450,10 +9447,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>402</v>
+      </c>
+      <c r="F227" t="s">
         <v>403</v>
-      </c>
-      <c r="F227" t="s">
-        <v>404</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9479,10 +9476,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>404</v>
+      </c>
+      <c r="F228" t="s">
         <v>405</v>
-      </c>
-      <c r="F228" t="s">
-        <v>406</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9508,10 +9505,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>406</v>
+      </c>
+      <c r="F229" t="s">
         <v>407</v>
-      </c>
-      <c r="F229" t="s">
-        <v>408</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9537,10 +9534,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>408</v>
+      </c>
+      <c r="F230" t="s">
         <v>409</v>
-      </c>
-      <c r="F230" t="s">
-        <v>410</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9566,10 +9563,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>410</v>
+      </c>
+      <c r="F231" t="s">
         <v>411</v>
-      </c>
-      <c r="F231" t="s">
-        <v>412</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9595,10 +9592,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>412</v>
+      </c>
+      <c r="F232" t="s">
         <v>413</v>
-      </c>
-      <c r="F232" t="s">
-        <v>414</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9624,10 +9621,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>414</v>
+      </c>
+      <c r="F233" t="s">
         <v>415</v>
-      </c>
-      <c r="F233" t="s">
-        <v>416</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9653,10 +9650,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>416</v>
+      </c>
+      <c r="F234" t="s">
         <v>417</v>
-      </c>
-      <c r="F234" t="s">
-        <v>418</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9682,10 +9679,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>418</v>
+      </c>
+      <c r="F235" t="s">
         <v>419</v>
-      </c>
-      <c r="F235" t="s">
-        <v>420</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9711,10 +9708,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>420</v>
+      </c>
+      <c r="F236" t="s">
         <v>421</v>
-      </c>
-      <c r="F236" t="s">
-        <v>422</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9740,10 +9737,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>422</v>
+      </c>
+      <c r="F237" t="s">
         <v>423</v>
-      </c>
-      <c r="F237" t="s">
-        <v>424</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9769,10 +9766,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>424</v>
+      </c>
+      <c r="F238" t="s">
         <v>425</v>
-      </c>
-      <c r="F238" t="s">
-        <v>426</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9798,10 +9795,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>426</v>
+      </c>
+      <c r="F239" t="s">
         <v>427</v>
-      </c>
-      <c r="F239" t="s">
-        <v>428</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9827,10 +9824,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>428</v>
+      </c>
+      <c r="F240" t="s">
         <v>429</v>
-      </c>
-      <c r="F240" t="s">
-        <v>430</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9856,10 +9853,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>430</v>
+      </c>
+      <c r="F241" t="s">
         <v>431</v>
-      </c>
-      <c r="F241" t="s">
-        <v>432</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9885,10 +9882,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>432</v>
+      </c>
+      <c r="F242" t="s">
         <v>433</v>
-      </c>
-      <c r="F242" t="s">
-        <v>434</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9914,10 +9911,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>434</v>
+      </c>
+      <c r="F243" t="s">
         <v>435</v>
-      </c>
-      <c r="F243" t="s">
-        <v>436</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9943,10 +9940,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>436</v>
+      </c>
+      <c r="F244" t="s">
         <v>437</v>
-      </c>
-      <c r="F244" t="s">
-        <v>438</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9972,10 +9969,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>438</v>
+      </c>
+      <c r="F245" t="s">
         <v>439</v>
-      </c>
-      <c r="F245" t="s">
-        <v>440</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10001,10 +9998,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>440</v>
+      </c>
+      <c r="F246" t="s">
         <v>441</v>
-      </c>
-      <c r="F246" t="s">
-        <v>442</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10030,10 +10027,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>442</v>
+      </c>
+      <c r="F247" t="s">
         <v>443</v>
-      </c>
-      <c r="F247" t="s">
-        <v>444</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10059,10 +10056,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>444</v>
+      </c>
+      <c r="F248" t="s">
         <v>445</v>
-      </c>
-      <c r="F248" t="s">
-        <v>446</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10088,10 +10085,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>446</v>
+      </c>
+      <c r="F249" t="s">
         <v>447</v>
-      </c>
-      <c r="F249" t="s">
-        <v>448</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10117,10 +10114,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>448</v>
+      </c>
+      <c r="F250" t="s">
         <v>449</v>
-      </c>
-      <c r="F250" t="s">
-        <v>450</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10146,10 +10143,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>450</v>
+      </c>
+      <c r="F251" t="s">
         <v>451</v>
-      </c>
-      <c r="F251" t="s">
-        <v>452</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10175,10 +10172,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>452</v>
+      </c>
+      <c r="F252" t="s">
         <v>453</v>
-      </c>
-      <c r="F252" t="s">
-        <v>454</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10204,10 +10201,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>454</v>
+      </c>
+      <c r="F253" t="s">
         <v>455</v>
-      </c>
-      <c r="F253" t="s">
-        <v>456</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10233,10 +10230,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>456</v>
+      </c>
+      <c r="F254" t="s">
         <v>457</v>
-      </c>
-      <c r="F254" t="s">
-        <v>458</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10262,10 +10259,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>458</v>
+      </c>
+      <c r="F255" t="s">
         <v>459</v>
-      </c>
-      <c r="F255" t="s">
-        <v>460</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10291,10 +10288,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>460</v>
+      </c>
+      <c r="F256" t="s">
         <v>461</v>
-      </c>
-      <c r="F256" t="s">
-        <v>462</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10320,10 +10317,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>462</v>
+      </c>
+      <c r="F257" t="s">
         <v>463</v>
-      </c>
-      <c r="F257" t="s">
-        <v>464</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10349,10 +10346,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>464</v>
+      </c>
+      <c r="F258" t="s">
         <v>465</v>
-      </c>
-      <c r="F258" t="s">
-        <v>466</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10378,10 +10375,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>466</v>
+      </c>
+      <c r="F259" t="s">
         <v>467</v>
-      </c>
-      <c r="F259" t="s">
-        <v>468</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10407,10 +10404,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>468</v>
+      </c>
+      <c r="F260" t="s">
         <v>469</v>
-      </c>
-      <c r="F260" t="s">
-        <v>470</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10436,10 +10433,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>470</v>
+      </c>
+      <c r="F261" t="s">
         <v>471</v>
-      </c>
-      <c r="F261" t="s">
-        <v>472</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10465,10 +10462,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>472</v>
+      </c>
+      <c r="F262" t="s">
         <v>473</v>
-      </c>
-      <c r="F262" t="s">
-        <v>474</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10494,10 +10491,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>474</v>
+      </c>
+      <c r="F263" t="s">
         <v>475</v>
-      </c>
-      <c r="F263" t="s">
-        <v>476</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10523,10 +10520,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>476</v>
+      </c>
+      <c r="F264" t="s">
         <v>477</v>
-      </c>
-      <c r="F264" t="s">
-        <v>478</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10552,10 +10549,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>478</v>
+      </c>
+      <c r="F265" t="s">
         <v>479</v>
-      </c>
-      <c r="F265" t="s">
-        <v>480</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10581,10 +10578,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>480</v>
+      </c>
+      <c r="F266" t="s">
         <v>481</v>
-      </c>
-      <c r="F266" t="s">
-        <v>482</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10610,10 +10607,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>482</v>
+      </c>
+      <c r="F267" t="s">
         <v>483</v>
-      </c>
-      <c r="F267" t="s">
-        <v>484</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10639,10 +10636,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>484</v>
+      </c>
+      <c r="F268" t="s">
         <v>485</v>
-      </c>
-      <c r="F268" t="s">
-        <v>486</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10668,10 +10665,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>486</v>
+      </c>
+      <c r="F269" t="s">
         <v>487</v>
-      </c>
-      <c r="F269" t="s">
-        <v>488</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -10697,10 +10694,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>488</v>
+      </c>
+      <c r="F270" t="s">
         <v>489</v>
-      </c>
-      <c r="F270" t="s">
-        <v>490</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10726,10 +10723,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>490</v>
+      </c>
+      <c r="F271" t="s">
         <v>491</v>
-      </c>
-      <c r="F271" t="s">
-        <v>492</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10755,10 +10752,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>492</v>
+      </c>
+      <c r="F272" t="s">
         <v>493</v>
-      </c>
-      <c r="F272" t="s">
-        <v>494</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10784,10 +10781,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>494</v>
+      </c>
+      <c r="F273" t="s">
         <v>495</v>
-      </c>
-      <c r="F273" t="s">
-        <v>496</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10813,10 +10810,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>496</v>
+      </c>
+      <c r="F274" t="s">
         <v>497</v>
-      </c>
-      <c r="F274" t="s">
-        <v>498</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10842,10 +10839,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>498</v>
+      </c>
+      <c r="F275" t="s">
         <v>499</v>
-      </c>
-      <c r="F275" t="s">
-        <v>500</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10871,10 +10868,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>500</v>
+      </c>
+      <c r="F276" t="s">
         <v>501</v>
-      </c>
-      <c r="F276" t="s">
-        <v>502</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10900,10 +10897,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>502</v>
+      </c>
+      <c r="F277" t="s">
         <v>503</v>
-      </c>
-      <c r="F277" t="s">
-        <v>504</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10929,10 +10926,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>504</v>
+      </c>
+      <c r="F278" t="s">
         <v>505</v>
-      </c>
-      <c r="F278" t="s">
-        <v>506</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10958,10 +10955,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>506</v>
+      </c>
+      <c r="F279" t="s">
         <v>507</v>
-      </c>
-      <c r="F279" t="s">
-        <v>508</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10987,10 +10984,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>508</v>
+      </c>
+      <c r="F280" t="s">
         <v>509</v>
-      </c>
-      <c r="F280" t="s">
-        <v>510</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11016,10 +11013,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>510</v>
+      </c>
+      <c r="F281" t="s">
         <v>511</v>
-      </c>
-      <c r="F281" t="s">
-        <v>512</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11045,10 +11042,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>512</v>
+      </c>
+      <c r="F282" t="s">
         <v>513</v>
-      </c>
-      <c r="F282" t="s">
-        <v>514</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11074,10 +11071,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>514</v>
+      </c>
+      <c r="F283" t="s">
         <v>515</v>
-      </c>
-      <c r="F283" t="s">
-        <v>516</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11103,10 +11100,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>516</v>
+      </c>
+      <c r="F284" t="s">
         <v>517</v>
-      </c>
-      <c r="F284" t="s">
-        <v>518</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11132,10 +11129,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>518</v>
+      </c>
+      <c r="F285" t="s">
         <v>519</v>
-      </c>
-      <c r="F285" t="s">
-        <v>520</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11161,10 +11158,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>520</v>
+      </c>
+      <c r="F286" t="s">
         <v>521</v>
-      </c>
-      <c r="F286" t="s">
-        <v>522</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11190,10 +11187,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>522</v>
+      </c>
+      <c r="F287" t="s">
         <v>523</v>
-      </c>
-      <c r="F287" t="s">
-        <v>524</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11219,10 +11216,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>524</v>
+      </c>
+      <c r="F288" t="s">
         <v>525</v>
-      </c>
-      <c r="F288" t="s">
-        <v>526</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11248,10 +11245,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>526</v>
+      </c>
+      <c r="F289" t="s">
         <v>527</v>
-      </c>
-      <c r="F289" t="s">
-        <v>528</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11277,10 +11274,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>528</v>
+      </c>
+      <c r="F290" t="s">
         <v>529</v>
-      </c>
-      <c r="F290" t="s">
-        <v>530</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11306,10 +11303,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>530</v>
+      </c>
+      <c r="F291" t="s">
         <v>531</v>
-      </c>
-      <c r="F291" t="s">
-        <v>532</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11335,10 +11332,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>532</v>
+      </c>
+      <c r="F292" t="s">
         <v>533</v>
-      </c>
-      <c r="F292" t="s">
-        <v>534</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11364,10 +11361,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>534</v>
+      </c>
+      <c r="F293" t="s">
         <v>535</v>
-      </c>
-      <c r="F293" t="s">
-        <v>536</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11393,10 +11390,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>536</v>
+      </c>
+      <c r="F294" t="s">
         <v>537</v>
-      </c>
-      <c r="F294" t="s">
-        <v>538</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11422,10 +11419,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>538</v>
+      </c>
+      <c r="F295" t="s">
         <v>539</v>
-      </c>
-      <c r="F295" t="s">
-        <v>540</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11451,10 +11448,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>540</v>
+      </c>
+      <c r="F296" t="s">
         <v>541</v>
-      </c>
-      <c r="F296" t="s">
-        <v>542</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11480,10 +11477,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>542</v>
+      </c>
+      <c r="F297" t="s">
         <v>543</v>
-      </c>
-      <c r="F297" t="s">
-        <v>544</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11509,10 +11506,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>544</v>
+      </c>
+      <c r="F298" t="s">
         <v>545</v>
-      </c>
-      <c r="F298" t="s">
-        <v>546</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11538,10 +11535,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>546</v>
+      </c>
+      <c r="F299" t="s">
         <v>547</v>
-      </c>
-      <c r="F299" t="s">
-        <v>548</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11567,10 +11564,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>548</v>
+      </c>
+      <c r="F300" t="s">
         <v>549</v>
-      </c>
-      <c r="F300" t="s">
-        <v>550</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11596,10 +11593,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>550</v>
+      </c>
+      <c r="F301" t="s">
         <v>551</v>
-      </c>
-      <c r="F301" t="s">
-        <v>552</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11625,10 +11622,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>552</v>
+      </c>
+      <c r="F302" t="s">
         <v>553</v>
-      </c>
-      <c r="F302" t="s">
-        <v>554</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11654,10 +11651,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>554</v>
+      </c>
+      <c r="F303" t="s">
         <v>555</v>
-      </c>
-      <c r="F303" t="s">
-        <v>556</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11683,10 +11680,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>556</v>
+      </c>
+      <c r="F304" t="s">
         <v>557</v>
-      </c>
-      <c r="F304" t="s">
-        <v>558</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11712,10 +11709,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>558</v>
+      </c>
+      <c r="F305" t="s">
         <v>559</v>
-      </c>
-      <c r="F305" t="s">
-        <v>560</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11741,10 +11738,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>560</v>
+      </c>
+      <c r="F306" t="s">
         <v>561</v>
-      </c>
-      <c r="F306" t="s">
-        <v>562</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11770,10 +11767,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>562</v>
+      </c>
+      <c r="F307" t="s">
         <v>563</v>
-      </c>
-      <c r="F307" t="s">
-        <v>564</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11799,10 +11796,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>564</v>
+      </c>
+      <c r="F308" t="s">
         <v>565</v>
-      </c>
-      <c r="F308" t="s">
-        <v>566</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11828,10 +11825,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>566</v>
+      </c>
+      <c r="F309" t="s">
         <v>567</v>
-      </c>
-      <c r="F309" t="s">
-        <v>568</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11857,10 +11854,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>568</v>
+      </c>
+      <c r="F310" t="s">
         <v>569</v>
-      </c>
-      <c r="F310" t="s">
-        <v>570</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11886,10 +11883,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>570</v>
+      </c>
+      <c r="F311" t="s">
         <v>571</v>
-      </c>
-      <c r="F311" t="s">
-        <v>572</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11915,10 +11912,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>572</v>
+      </c>
+      <c r="F312" t="s">
         <v>573</v>
-      </c>
-      <c r="F312" t="s">
-        <v>574</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11944,10 +11941,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>574</v>
+      </c>
+      <c r="F313" t="s">
         <v>575</v>
-      </c>
-      <c r="F313" t="s">
-        <v>576</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11973,10 +11970,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>576</v>
+      </c>
+      <c r="F314" t="s">
         <v>577</v>
-      </c>
-      <c r="F314" t="s">
-        <v>578</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12002,10 +11999,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>578</v>
+      </c>
+      <c r="F315" t="s">
         <v>579</v>
-      </c>
-      <c r="F315" t="s">
-        <v>580</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12031,10 +12028,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>580</v>
+      </c>
+      <c r="F316" t="s">
         <v>581</v>
-      </c>
-      <c r="F316" t="s">
-        <v>582</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12060,10 +12057,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>582</v>
+      </c>
+      <c r="F317" t="s">
         <v>583</v>
-      </c>
-      <c r="F317" t="s">
-        <v>584</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12089,10 +12086,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>584</v>
+      </c>
+      <c r="F318" t="s">
         <v>585</v>
-      </c>
-      <c r="F318" t="s">
-        <v>586</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12118,10 +12115,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>586</v>
+      </c>
+      <c r="F319" t="s">
         <v>587</v>
-      </c>
-      <c r="F319" t="s">
-        <v>588</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12147,10 +12144,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>588</v>
+      </c>
+      <c r="F320" t="s">
         <v>589</v>
-      </c>
-      <c r="F320" t="s">
-        <v>590</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12176,10 +12173,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>590</v>
+      </c>
+      <c r="F321" t="s">
         <v>591</v>
-      </c>
-      <c r="F321" t="s">
-        <v>592</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12205,10 +12202,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>592</v>
+      </c>
+      <c r="F322" t="s">
         <v>593</v>
-      </c>
-      <c r="F322" t="s">
-        <v>594</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12234,10 +12231,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>594</v>
+      </c>
+      <c r="F323" t="s">
         <v>595</v>
-      </c>
-      <c r="F323" t="s">
-        <v>596</v>
       </c>
       <c r="G323" t="n">
         <v>4</v>
@@ -12263,10 +12260,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>596</v>
+      </c>
+      <c r="F324" t="s">
         <v>597</v>
-      </c>
-      <c r="F324" t="s">
-        <v>598</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12292,10 +12289,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>598</v>
+      </c>
+      <c r="F325" t="s">
         <v>599</v>
-      </c>
-      <c r="F325" t="s">
-        <v>600</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12321,10 +12318,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>600</v>
+      </c>
+      <c r="F326" t="s">
         <v>601</v>
-      </c>
-      <c r="F326" t="s">
-        <v>602</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12350,10 +12347,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>602</v>
+      </c>
+      <c r="F327" t="s">
         <v>603</v>
-      </c>
-      <c r="F327" t="s">
-        <v>604</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12379,10 +12376,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>604</v>
+      </c>
+      <c r="F328" t="s">
         <v>605</v>
-      </c>
-      <c r="F328" t="s">
-        <v>606</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12408,10 +12405,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>606</v>
+      </c>
+      <c r="F329" t="s">
         <v>607</v>
-      </c>
-      <c r="F329" t="s">
-        <v>608</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12437,10 +12434,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>608</v>
+      </c>
+      <c r="F330" t="s">
         <v>609</v>
-      </c>
-      <c r="F330" t="s">
-        <v>610</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12466,10 +12463,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>610</v>
+      </c>
+      <c r="F331" t="s">
         <v>611</v>
-      </c>
-      <c r="F331" t="s">
-        <v>612</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12495,10 +12492,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>610</v>
+      </c>
+      <c r="F332" t="s">
         <v>611</v>
-      </c>
-      <c r="F332" t="s">
-        <v>612</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12524,10 +12521,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>612</v>
+      </c>
+      <c r="F333" t="s">
         <v>613</v>
-      </c>
-      <c r="F333" t="s">
-        <v>614</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12553,10 +12550,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>614</v>
+      </c>
+      <c r="F334" t="s">
         <v>615</v>
-      </c>
-      <c r="F334" t="s">
-        <v>616</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12582,10 +12579,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>616</v>
+      </c>
+      <c r="F335" t="s">
         <v>617</v>
-      </c>
-      <c r="F335" t="s">
-        <v>618</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12611,10 +12608,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>618</v>
+      </c>
+      <c r="F336" t="s">
         <v>619</v>
-      </c>
-      <c r="F336" t="s">
-        <v>620</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12640,10 +12637,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>620</v>
+      </c>
+      <c r="F337" t="s">
         <v>621</v>
-      </c>
-      <c r="F337" t="s">
-        <v>622</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12669,10 +12666,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>622</v>
+      </c>
+      <c r="F338" t="s">
         <v>623</v>
-      </c>
-      <c r="F338" t="s">
-        <v>624</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12698,10 +12695,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>624</v>
+      </c>
+      <c r="F339" t="s">
         <v>625</v>
-      </c>
-      <c r="F339" t="s">
-        <v>626</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12727,10 +12724,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>626</v>
+      </c>
+      <c r="F340" t="s">
         <v>627</v>
-      </c>
-      <c r="F340" t="s">
-        <v>628</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12756,10 +12753,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>628</v>
+      </c>
+      <c r="F341" t="s">
         <v>629</v>
-      </c>
-      <c r="F341" t="s">
-        <v>630</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12785,10 +12782,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>630</v>
+      </c>
+      <c r="F342" t="s">
         <v>631</v>
-      </c>
-      <c r="F342" t="s">
-        <v>632</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12814,10 +12811,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>632</v>
+      </c>
+      <c r="F343" t="s">
         <v>633</v>
-      </c>
-      <c r="F343" t="s">
-        <v>634</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12843,10 +12840,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>634</v>
+      </c>
+      <c r="F344" t="s">
         <v>635</v>
-      </c>
-      <c r="F344" t="s">
-        <v>636</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12872,10 +12869,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>636</v>
+      </c>
+      <c r="F345" t="s">
         <v>637</v>
-      </c>
-      <c r="F345" t="s">
-        <v>638</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12901,10 +12898,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>638</v>
+      </c>
+      <c r="F346" t="s">
         <v>639</v>
-      </c>
-      <c r="F346" t="s">
-        <v>640</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12930,10 +12927,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>640</v>
+      </c>
+      <c r="F347" t="s">
         <v>641</v>
-      </c>
-      <c r="F347" t="s">
-        <v>642</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12959,10 +12956,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>642</v>
+      </c>
+      <c r="F348" t="s">
         <v>643</v>
-      </c>
-      <c r="F348" t="s">
-        <v>644</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12988,10 +12985,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>644</v>
+      </c>
+      <c r="F349" t="s">
         <v>645</v>
-      </c>
-      <c r="F349" t="s">
-        <v>646</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13017,10 +13014,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>646</v>
+      </c>
+      <c r="F350" t="s">
         <v>647</v>
-      </c>
-      <c r="F350" t="s">
-        <v>648</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13046,10 +13043,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>648</v>
+      </c>
+      <c r="F351" t="s">
         <v>649</v>
-      </c>
-      <c r="F351" t="s">
-        <v>650</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13075,10 +13072,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>650</v>
+      </c>
+      <c r="F352" t="s">
         <v>651</v>
-      </c>
-      <c r="F352" t="s">
-        <v>652</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13104,10 +13101,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>652</v>
+      </c>
+      <c r="F353" t="s">
         <v>653</v>
-      </c>
-      <c r="F353" t="s">
-        <v>654</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13133,10 +13130,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>654</v>
+      </c>
+      <c r="F354" t="s">
         <v>655</v>
-      </c>
-      <c r="F354" t="s">
-        <v>656</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13162,10 +13159,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>656</v>
+      </c>
+      <c r="F355" t="s">
         <v>657</v>
-      </c>
-      <c r="F355" t="s">
-        <v>658</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13191,10 +13188,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>658</v>
+      </c>
+      <c r="F356" t="s">
         <v>659</v>
-      </c>
-      <c r="F356" t="s">
-        <v>660</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13220,10 +13217,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>660</v>
+      </c>
+      <c r="F357" t="s">
         <v>661</v>
-      </c>
-      <c r="F357" t="s">
-        <v>662</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13249,10 +13246,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>662</v>
+      </c>
+      <c r="F358" t="s">
         <v>663</v>
-      </c>
-      <c r="F358" t="s">
-        <v>664</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13278,10 +13275,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>664</v>
+      </c>
+      <c r="F359" t="s">
         <v>665</v>
-      </c>
-      <c r="F359" t="s">
-        <v>666</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13307,10 +13304,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>666</v>
+      </c>
+      <c r="F360" t="s">
         <v>667</v>
-      </c>
-      <c r="F360" t="s">
-        <v>668</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13336,10 +13333,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>312</v>
+      </c>
+      <c r="F361" t="s">
         <v>313</v>
-      </c>
-      <c r="F361" t="s">
-        <v>314</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13365,10 +13362,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>668</v>
+      </c>
+      <c r="F362" t="s">
         <v>669</v>
-      </c>
-      <c r="F362" t="s">
-        <v>670</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13394,10 +13391,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>670</v>
+      </c>
+      <c r="F363" t="s">
         <v>671</v>
-      </c>
-      <c r="F363" t="s">
-        <v>672</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13423,10 +13420,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>672</v>
+      </c>
+      <c r="F364" t="s">
         <v>673</v>
-      </c>
-      <c r="F364" t="s">
-        <v>674</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13452,10 +13449,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>674</v>
+      </c>
+      <c r="F365" t="s">
         <v>675</v>
-      </c>
-      <c r="F365" t="s">
-        <v>676</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13481,10 +13478,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>676</v>
+      </c>
+      <c r="F366" t="s">
         <v>677</v>
-      </c>
-      <c r="F366" t="s">
-        <v>678</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13510,10 +13507,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>678</v>
+      </c>
+      <c r="F367" t="s">
         <v>679</v>
-      </c>
-      <c r="F367" t="s">
-        <v>680</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13539,10 +13536,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>680</v>
+      </c>
+      <c r="F368" t="s">
         <v>681</v>
-      </c>
-      <c r="F368" t="s">
-        <v>682</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13568,10 +13565,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>682</v>
+      </c>
+      <c r="F369" t="s">
         <v>683</v>
-      </c>
-      <c r="F369" t="s">
-        <v>684</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13597,10 +13594,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>684</v>
+      </c>
+      <c r="F370" t="s">
         <v>685</v>
-      </c>
-      <c r="F370" t="s">
-        <v>686</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13626,10 +13623,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>686</v>
+      </c>
+      <c r="F371" t="s">
         <v>687</v>
-      </c>
-      <c r="F371" t="s">
-        <v>688</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13655,10 +13652,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>688</v>
+      </c>
+      <c r="F372" t="s">
         <v>689</v>
-      </c>
-      <c r="F372" t="s">
-        <v>690</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13684,10 +13681,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>690</v>
+      </c>
+      <c r="F373" t="s">
         <v>691</v>
-      </c>
-      <c r="F373" t="s">
-        <v>692</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13713,10 +13710,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>692</v>
+      </c>
+      <c r="F374" t="s">
         <v>693</v>
-      </c>
-      <c r="F374" t="s">
-        <v>694</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13742,10 +13739,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>694</v>
+      </c>
+      <c r="F375" t="s">
         <v>695</v>
-      </c>
-      <c r="F375" t="s">
-        <v>696</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13771,10 +13768,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>696</v>
+      </c>
+      <c r="F376" t="s">
         <v>697</v>
-      </c>
-      <c r="F376" t="s">
-        <v>698</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13800,10 +13797,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>698</v>
+      </c>
+      <c r="F377" t="s">
         <v>699</v>
-      </c>
-      <c r="F377" t="s">
-        <v>700</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13829,10 +13826,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>700</v>
+      </c>
+      <c r="F378" t="s">
         <v>701</v>
-      </c>
-      <c r="F378" t="s">
-        <v>702</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13858,10 +13855,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>702</v>
+      </c>
+      <c r="F379" t="s">
         <v>703</v>
-      </c>
-      <c r="F379" t="s">
-        <v>704</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13887,10 +13884,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>704</v>
+      </c>
+      <c r="F380" t="s">
         <v>705</v>
-      </c>
-      <c r="F380" t="s">
-        <v>706</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13916,10 +13913,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>706</v>
+      </c>
+      <c r="F381" t="s">
         <v>707</v>
-      </c>
-      <c r="F381" t="s">
-        <v>708</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13945,10 +13942,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>708</v>
+      </c>
+      <c r="F382" t="s">
         <v>709</v>
-      </c>
-      <c r="F382" t="s">
-        <v>710</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13974,10 +13971,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>710</v>
+      </c>
+      <c r="F383" t="s">
         <v>711</v>
-      </c>
-      <c r="F383" t="s">
-        <v>712</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14003,10 +14000,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>712</v>
+      </c>
+      <c r="F384" t="s">
         <v>713</v>
-      </c>
-      <c r="F384" t="s">
-        <v>714</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14032,10 +14029,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>714</v>
+      </c>
+      <c r="F385" t="s">
         <v>715</v>
-      </c>
-      <c r="F385" t="s">
-        <v>716</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14061,10 +14058,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>610</v>
+      </c>
+      <c r="F386" t="s">
         <v>611</v>
-      </c>
-      <c r="F386" t="s">
-        <v>612</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14090,10 +14087,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>716</v>
+      </c>
+      <c r="F387" t="s">
         <v>717</v>
-      </c>
-      <c r="F387" t="s">
-        <v>718</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14119,10 +14116,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>718</v>
+      </c>
+      <c r="F388" t="s">
         <v>719</v>
-      </c>
-      <c r="F388" t="s">
-        <v>720</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14148,10 +14145,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>720</v>
+      </c>
+      <c r="F389" t="s">
         <v>721</v>
-      </c>
-      <c r="F389" t="s">
-        <v>722</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14177,10 +14174,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>722</v>
+      </c>
+      <c r="F390" t="s">
         <v>723</v>
-      </c>
-      <c r="F390" t="s">
-        <v>724</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14206,10 +14203,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>724</v>
+      </c>
+      <c r="F391" t="s">
         <v>725</v>
-      </c>
-      <c r="F391" t="s">
-        <v>726</v>
       </c>
       <c r="G391" t="n">
         <v>4</v>
@@ -14235,10 +14232,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>726</v>
+      </c>
+      <c r="F392" t="s">
         <v>727</v>
-      </c>
-      <c r="F392" t="s">
-        <v>728</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14264,10 +14261,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>728</v>
+      </c>
+      <c r="F393" t="s">
         <v>729</v>
-      </c>
-      <c r="F393" t="s">
-        <v>730</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14293,10 +14290,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>730</v>
+      </c>
+      <c r="F394" t="s">
         <v>731</v>
-      </c>
-      <c r="F394" t="s">
-        <v>732</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14322,10 +14319,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>732</v>
+      </c>
+      <c r="F395" t="s">
         <v>733</v>
-      </c>
-      <c r="F395" t="s">
-        <v>734</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14351,10 +14348,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>734</v>
+      </c>
+      <c r="F396" t="s">
         <v>735</v>
-      </c>
-      <c r="F396" t="s">
-        <v>736</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14380,10 +14377,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>736</v>
+      </c>
+      <c r="F397" t="s">
         <v>737</v>
-      </c>
-      <c r="F397" t="s">
-        <v>738</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14409,10 +14406,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>738</v>
+      </c>
+      <c r="F398" t="s">
         <v>739</v>
-      </c>
-      <c r="F398" t="s">
-        <v>740</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14438,10 +14435,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>740</v>
+      </c>
+      <c r="F399" t="s">
         <v>741</v>
-      </c>
-      <c r="F399" t="s">
-        <v>742</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14467,10 +14464,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>742</v>
+      </c>
+      <c r="F400" t="s">
         <v>743</v>
-      </c>
-      <c r="F400" t="s">
-        <v>744</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14496,10 +14493,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>744</v>
+      </c>
+      <c r="F401" t="s">
         <v>745</v>
-      </c>
-      <c r="F401" t="s">
-        <v>746</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14525,10 +14522,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>746</v>
+      </c>
+      <c r="F402" t="s">
         <v>747</v>
-      </c>
-      <c r="F402" t="s">
-        <v>748</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14554,10 +14551,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>748</v>
+      </c>
+      <c r="F403" t="s">
         <v>749</v>
-      </c>
-      <c r="F403" t="s">
-        <v>750</v>
       </c>
       <c r="G403" t="n">
         <v>7</v>
@@ -14583,10 +14580,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>750</v>
+      </c>
+      <c r="F404" t="s">
         <v>751</v>
-      </c>
-      <c r="F404" t="s">
-        <v>752</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14612,10 +14609,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>752</v>
+      </c>
+      <c r="F405" t="s">
         <v>753</v>
-      </c>
-      <c r="F405" t="s">
-        <v>754</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14641,10 +14638,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>754</v>
+      </c>
+      <c r="F406" t="s">
         <v>755</v>
-      </c>
-      <c r="F406" t="s">
-        <v>756</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14670,10 +14667,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>756</v>
+      </c>
+      <c r="F407" t="s">
         <v>757</v>
-      </c>
-      <c r="F407" t="s">
-        <v>758</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -14699,10 +14696,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>758</v>
+      </c>
+      <c r="F408" t="s">
         <v>759</v>
-      </c>
-      <c r="F408" t="s">
-        <v>760</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14728,10 +14725,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>312</v>
+      </c>
+      <c r="F409" t="s">
         <v>313</v>
-      </c>
-      <c r="F409" t="s">
-        <v>314</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14757,10 +14754,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>760</v>
+      </c>
+      <c r="F410" t="s">
         <v>761</v>
-      </c>
-      <c r="F410" t="s">
-        <v>762</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -14786,10 +14783,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>762</v>
+      </c>
+      <c r="F411" t="s">
         <v>763</v>
-      </c>
-      <c r="F411" t="s">
-        <v>764</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14815,10 +14812,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>764</v>
+      </c>
+      <c r="F412" t="s">
         <v>765</v>
-      </c>
-      <c r="F412" t="s">
-        <v>766</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14844,10 +14841,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>766</v>
+      </c>
+      <c r="F413" t="s">
         <v>767</v>
-      </c>
-      <c r="F413" t="s">
-        <v>768</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14873,10 +14870,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>768</v>
+      </c>
+      <c r="F414" t="s">
         <v>769</v>
-      </c>
-      <c r="F414" t="s">
-        <v>770</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14902,10 +14899,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>770</v>
+      </c>
+      <c r="F415" t="s">
         <v>771</v>
-      </c>
-      <c r="F415" t="s">
-        <v>772</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14931,10 +14928,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>772</v>
+      </c>
+      <c r="F416" t="s">
         <v>773</v>
-      </c>
-      <c r="F416" t="s">
-        <v>774</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14960,10 +14957,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>774</v>
+      </c>
+      <c r="F417" t="s">
         <v>775</v>
-      </c>
-      <c r="F417" t="s">
-        <v>776</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14989,10 +14986,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>776</v>
+      </c>
+      <c r="F418" t="s">
         <v>777</v>
-      </c>
-      <c r="F418" t="s">
-        <v>778</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15018,10 +15015,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>778</v>
+      </c>
+      <c r="F419" t="s">
         <v>779</v>
-      </c>
-      <c r="F419" t="s">
-        <v>780</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15047,10 +15044,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>780</v>
+      </c>
+      <c r="F420" t="s">
         <v>781</v>
-      </c>
-      <c r="F420" t="s">
-        <v>782</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15076,10 +15073,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>782</v>
+      </c>
+      <c r="F421" t="s">
         <v>783</v>
-      </c>
-      <c r="F421" t="s">
-        <v>784</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15105,10 +15102,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>784</v>
+      </c>
+      <c r="F422" t="s">
         <v>785</v>
-      </c>
-      <c r="F422" t="s">
-        <v>786</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15134,10 +15131,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>786</v>
+      </c>
+      <c r="F423" t="s">
         <v>787</v>
-      </c>
-      <c r="F423" t="s">
-        <v>788</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15163,10 +15160,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>788</v>
+      </c>
+      <c r="F424" t="s">
         <v>789</v>
-      </c>
-      <c r="F424" t="s">
-        <v>790</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15192,10 +15189,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>790</v>
+      </c>
+      <c r="F425" t="s">
         <v>791</v>
-      </c>
-      <c r="F425" t="s">
-        <v>792</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15221,10 +15218,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>792</v>
+      </c>
+      <c r="F426" t="s">
         <v>793</v>
-      </c>
-      <c r="F426" t="s">
-        <v>794</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15250,10 +15247,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>794</v>
+      </c>
+      <c r="F427" t="s">
         <v>795</v>
-      </c>
-      <c r="F427" t="s">
-        <v>796</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15279,10 +15276,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>796</v>
+      </c>
+      <c r="F428" t="s">
         <v>797</v>
-      </c>
-      <c r="F428" t="s">
-        <v>798</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15308,10 +15305,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>798</v>
+      </c>
+      <c r="F429" t="s">
         <v>799</v>
-      </c>
-      <c r="F429" t="s">
-        <v>800</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15337,10 +15334,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>800</v>
+      </c>
+      <c r="F430" t="s">
         <v>801</v>
-      </c>
-      <c r="F430" t="s">
-        <v>802</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15366,10 +15363,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>802</v>
+      </c>
+      <c r="F431" t="s">
         <v>803</v>
-      </c>
-      <c r="F431" t="s">
-        <v>804</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15395,10 +15392,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>804</v>
+      </c>
+      <c r="F432" t="s">
         <v>805</v>
-      </c>
-      <c r="F432" t="s">
-        <v>806</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15424,10 +15421,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>806</v>
+      </c>
+      <c r="F433" t="s">
         <v>807</v>
-      </c>
-      <c r="F433" t="s">
-        <v>808</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15453,10 +15450,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>808</v>
+      </c>
+      <c r="F434" t="s">
         <v>809</v>
-      </c>
-      <c r="F434" t="s">
-        <v>810</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15482,10 +15479,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>810</v>
+      </c>
+      <c r="F435" t="s">
         <v>811</v>
-      </c>
-      <c r="F435" t="s">
-        <v>812</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15511,10 +15508,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>812</v>
+      </c>
+      <c r="F436" t="s">
         <v>813</v>
-      </c>
-      <c r="F436" t="s">
-        <v>814</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15540,10 +15537,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
+        <v>814</v>
+      </c>
+      <c r="F437" t="s">
         <v>815</v>
-      </c>
-      <c r="F437" t="s">
-        <v>816</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15569,10 +15566,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
+        <v>816</v>
+      </c>
+      <c r="F438" t="s">
         <v>817</v>
-      </c>
-      <c r="F438" t="s">
-        <v>818</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15598,10 +15595,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>818</v>
+      </c>
+      <c r="F439" t="s">
         <v>819</v>
-      </c>
-      <c r="F439" t="s">
-        <v>820</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15627,10 +15624,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>820</v>
+      </c>
+      <c r="F440" t="s">
         <v>821</v>
-      </c>
-      <c r="F440" t="s">
-        <v>822</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15656,10 +15653,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>822</v>
+      </c>
+      <c r="F441" t="s">
         <v>823</v>
-      </c>
-      <c r="F441" t="s">
-        <v>824</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15685,10 +15682,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>824</v>
+      </c>
+      <c r="F442" t="s">
         <v>825</v>
-      </c>
-      <c r="F442" t="s">
-        <v>826</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15714,10 +15711,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>826</v>
+      </c>
+      <c r="F443" t="s">
         <v>827</v>
-      </c>
-      <c r="F443" t="s">
-        <v>828</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -15743,10 +15740,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>828</v>
+      </c>
+      <c r="F444" t="s">
         <v>829</v>
-      </c>
-      <c r="F444" t="s">
-        <v>830</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15772,10 +15769,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>830</v>
+      </c>
+      <c r="F445" t="s">
         <v>831</v>
-      </c>
-      <c r="F445" t="s">
-        <v>832</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15801,10 +15798,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
+        <v>832</v>
+      </c>
+      <c r="F446" t="s">
         <v>833</v>
-      </c>
-      <c r="F446" t="s">
-        <v>834</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15830,10 +15827,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>834</v>
+      </c>
+      <c r="F447" t="s">
         <v>835</v>
-      </c>
-      <c r="F447" t="s">
-        <v>836</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -15859,10 +15856,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F448" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
